--- a/Task/2015-04-29门店区域变更/区域变更调整方案20150429.xlsx
+++ b/Task/2015-04-29门店区域变更/区域变更调整方案20150429.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="462">
   <si>
     <t>STORE</t>
   </si>
@@ -1445,10 +1445,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>？？？？</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>RA历史数据的修正</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1472,7 +1468,7 @@
       <sz val="9"/>
       <color indexed="64"/>
       <name val="宋体"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1563,7 +1559,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1584,6 +1580,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11263,8 +11260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12528,7 +12525,7 @@
   <dimension ref="A1:C260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -13877,6 +13874,7 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13885,7 +13883,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:IV8"/>
+      <selection activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -14054,7 +14052,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="D2" sqref="D2:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -14625,7 +14623,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C3" sqref="C3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -14674,8 +14672,12 @@
       <c r="B3" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="D3" s="12">
+        <v>20150506</v>
+      </c>
       <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" ht="14.25">
@@ -14688,7 +14690,9 @@
       <c r="C4" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="12">
+        <v>20150506</v>
+      </c>
       <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" ht="14.25">
@@ -14701,7 +14705,9 @@
       <c r="C5" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="12">
+        <v>20150506</v>
+      </c>
       <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" ht="14.25">
@@ -14714,7 +14720,9 @@
       <c r="C6" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="12">
+        <v>20150506</v>
+      </c>
       <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" ht="14.25">
@@ -14727,8 +14735,8 @@
       <c r="C7" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>461</v>
+      <c r="D7" s="12">
+        <v>20150506</v>
       </c>
       <c r="E7" s="12"/>
     </row>
@@ -14742,7 +14750,9 @@
       <c r="C8" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="12">
+        <v>20150506</v>
+      </c>
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" ht="14.25">
@@ -14755,20 +14765,24 @@
       <c r="C9" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="12">
+        <v>20150506</v>
+      </c>
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" ht="14.25">
-      <c r="A10" s="12">
+      <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="16">
+        <v>20150506</v>
+      </c>
       <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" ht="14.25">
@@ -14781,7 +14795,9 @@
       <c r="C11" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="12">
+        <v>20150507</v>
+      </c>
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" ht="14.25">
@@ -14794,7 +14810,9 @@
       <c r="C12" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="12">
+        <v>20150507</v>
+      </c>
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" ht="14.25">
@@ -14802,12 +14820,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="12">
+        <v>20150511</v>
+      </c>
       <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" ht="14.25">
